--- a/13_反復１復計画書 .xlsx
+++ b/13_反復１復計画書 .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{6CFCE64D-4DD9-48C1-9F02-0CD32F3B3B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{620A8C6D-A1DE-4CB3-9C40-77F1A0C56902}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936DAA5-9D37-4407-A6CA-0E9CF499A78D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -451,6 +449,14 @@
 テスト計画書(新規作成)
 テスト済のソースコード(新規作成)
 KPTによる振り返り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6,5日間</t>
+    <rPh sb="3" eb="5">
+      <t>ニチカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -832,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,11 +1296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1300,7 +1309,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1320,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1320,7 +1329,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1329,14 +1338,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -1366,7 +1375,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>9</v>
@@ -1381,7 +1390,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>10</v>
@@ -1396,7 +1405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="73.5" customHeight="1">
+    <row r="9" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>14</v>
@@ -1411,7 +1420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="137.25" customHeight="1">
+    <row r="10" spans="1:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
@@ -1426,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12" customHeight="1">
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>22</v>
@@ -1435,45 +1444,53 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="38">
+        <v>43984</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="29">
+        <v>43992</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="21" t="s">
         <v>22</v>
@@ -1502,7 +1519,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1511,7 +1528,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1539,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1531,7 +1548,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1540,14 +1557,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -1577,7 +1594,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>9</v>
@@ -1592,7 +1609,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>10</v>
@@ -1607,7 +1624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>14</v>
@@ -1622,7 +1639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
@@ -1637,7 +1654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>22</v>
@@ -1646,7 +1663,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1657,7 +1674,7 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>9</v>
@@ -1666,7 +1683,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
@@ -1675,7 +1692,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="20" t="s">
         <v>18</v>
@@ -1684,7 +1701,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="21" t="s">
         <v>22</v>
@@ -1890,18 +1907,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1923,18 +1940,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>